--- a/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
+++ b/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis - Doctor" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -90,6 +90,259 @@
     <t>Criteria : Referral
 Start Date : 2016 Jan 1
 End Date : 2016 Oct 31</t>
+  </si>
+  <si>
+    <t>To verify the records in database matches the result shown on web UI (Part 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank     DoctorName    Total
+1 Andrew Quoc Dutton 2
+1 doctorSean 2
+2 Adrian Saurajen Siew Ming 1
+2 Chin Chong Min 1
+2 Dede Selamat Sutedja 1
+2 Elaine Chee Wen Ling 1
+2 Esther Chuwa Wee Lee 1
+2 Esther Fu Raw Yueh 1
+2 Leo Kah Woon 1
+2 Lim Hong Liang 1
+2 Lim Tai Tian 1
+2 Luman Widjaja 1
+2 Ng Puay Yong 1
+2 Ngian Kite Seng 1
+2 Ngoi Sing Shang 1
+2 Paul Chia Min Wee 1
+2 Phuah Huan Kee 1
+2 Pillay Premkumar 1
+2 Wee Siew Bock 1
+</t>
+  </si>
+  <si>
+    <t>Rank   DoctorName   Total 
+1    Phuah Huan Kee 1 
+1    Ng Puay Yong 1</t>
+  </si>
+  <si>
+    <t>Rank   DoctorName   Total
+1   DoctorSean 2</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rank   referral name : count 
+1  referral Sean : 1
+</t>
+  </si>
+  <si>
+    <t>Criteria : Referral
+Start Date : 2016 Oct 5
+End Date : 2016 Oct 5</t>
+  </si>
+  <si>
+    <t>Rank   Speciality    Total
+1 doctorSean  2</t>
+  </si>
+  <si>
+    <t>Criteria : Referral
+Start Date : 2016 Oct 8
+End Date : 2016 Oct 9</t>
+  </si>
+  <si>
+    <t>Rank   Speciality    Total
+1 Paediatrics  1
+1 Surgery - Neuro  1</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank   Speciality    Total
+1 Surgery - Orthopaedics  3
+2 doctorSean  2
+2 Medicine - Gastroenterology  2
+2 Surgery - Breast    2
+2 Surgery - Eye   2
+2 Surgery - Neuro   2
+3 Medicine - Cardiology   1
+3 Medicine - Dermatology   1
+3 Medicine - Oncology  1
+3 Paediatrics   1
+3 Surgery - ENT   1
+3 Surgery - General   1
+3 Surgery - Plastic   1
+3 Surgery - Urology   1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank   Speciality   Total
+1 Surgery - Orthopaedics 3
+2 Medicine - Gastroenterology 2
+2 doctorSean 2
+2 Surgery - Neuro 2
+2 Surgery - Breast 2
+2 Surgery - Eye 2
+3 Surgery - ENT 1
+3 Surgery - General 1
+3 Surgery - Urology 1
+3 Medicine - Cardiology 1
+3 Surgery - Plastic 1
+3 Medicine - Dermatology 1
+3 Paediatrics 1
+3 Medicine - Oncology 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name: Client Tester 1
+Date of Birth : 20/04/1982
+Passport Number : F1299823102
+Gender: Male
+Client Type : Individual
+VISA Type: -  
+Nationality: Chinese
+Country of Residence:  China
+Referred by :  -  
+Street, City, State, Code, Country : - </t>
+  </si>
+  <si>
+    <t>Criteria : Referral
+Start Date : 2016 Nov 1
+End Date : 2016 Nov 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rank   referral name : count 
+1  ULINK : 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rank   referral name : count 
+no result
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name: Client Tester 2
+Date of Birth : 21/05/1982
+Passport Number : D232141097623G
+Gender: female
+Client Type : Individual
+VISA Type:  -  
+Nationality: Indonesian
+Country of Residence:  Malaysia
+Referred by :  -  
+Street, City, State, Code, Country : - </t>
+  </si>
+  <si>
+    <t>Age : 9
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: All
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Success Message shown, screening added into the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Screening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success message not shown, screening added into the list of result (table) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Age : 9
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: All
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Regularity : 1 </t>
+    </r>
+  </si>
+  <si>
+    <t>Success Message shown, screening details updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unable to edit screening </t>
+  </si>
+  <si>
+    <t>Redirect back to screening page, screening removed from the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirect back to screening page, screening removed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : ALL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : Male) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : Female) </t>
+  </si>
+  <si>
+    <t>Age : 21
+Common illness:  Cancer
+Recommended screening:  - 
+Demographic affected: Female
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Screening (Type : Infant) </t>
+  </si>
+  <si>
+    <t>Age : 1
+Common illness:  Chicken Pox
+Recommended screening:  - 
+Demographic affected: Infant
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t>Age : 20
+Common illness: Cancers
+Recommended screening:  - 
+Demographic affected: Male
+Regularity : 1</t>
+  </si>
+  <si>
+    <t>Create Client 
+(Visa Type: indonesian)</t>
+  </si>
+  <si>
+    <t>Create Client 
+(Visa Type: non-indonesian)</t>
+  </si>
+  <si>
+    <t>Success Message Shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Record Added" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success message not shown, screening not added into the list of result (table) </t>
+  </si>
+  <si>
+    <t>inpatient count = 3
+outpatient count = 2</t>
+  </si>
+  <si>
+    <t>inpatient count = 0
+outpatient count = 0</t>
   </si>
   <si>
     <r>
@@ -114,11 +367,11 @@
       <t xml:space="preserve">
 0 - 9 : 0 
 10 - 19 : 0
-20 - 29 : 1
+20 - 29 : 0
 30 - 39 : 0
 40 - 49 : 0
 50 - 59 : 0
-60 - 69  : 60 
+60 - 69  : 8
 70-79  : 0
 80 - 89  : 0
 </t>
@@ -149,264 +402,89 @@
 30 - 39 : 0  
 40 - 49 : 0
 50 - 59 : 0
-60 - 69  : 140
+60 - 69  : 14
 70-79  : 0
 80 - 89  : 0</t>
     </r>
   </si>
   <si>
-    <t>inpatient count = 0 
-outpatient count = 0</t>
-  </si>
-  <si>
-    <t>To verify the records in database matches the result shown on web UI (Part 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank     DoctorName    Total
-1 Andrew Quoc Dutton 2
-1 doctorSean 2
-2 Adrian Saurajen Siew Ming 1
-2 Chin Chong Min 1
-2 Dede Selamat Sutedja 1
-2 Elaine Chee Wen Ling 1
-2 Esther Chuwa Wee Lee 1
-2 Esther Fu Raw Yueh 1
-2 Leo Kah Woon 1
-2 Lim Hong Liang 1
-2 Lim Tai Tian 1
-2 Luman Widjaja 1
-2 Ng Puay Yong 1
-2 Ngian Kite Seng 1
-2 Ngoi Sing Shang 1
-2 Paul Chia Min Wee 1
-2 Phuah Huan Kee 1
-2 Pillay Premkumar 1
-2 Wee Siew Bock 1
-</t>
-  </si>
-  <si>
-    <t>Rank   DoctorName   Total 
-1    Phuah Huan Kee 1 
-1    Ng Puay Yong 1</t>
-  </si>
-  <si>
-    <t>Rank   DoctorName   Total
-1   DoctorSean 2</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rank   referral name : count 
-1  referral Sean : 1
-</t>
-  </si>
-  <si>
-    <t>Criteria : Referral
-Start Date : 2016 Oct 5
-End Date : 2016 Oct 5</t>
-  </si>
-  <si>
-    <t>Rank   Speciality    Total
-1 doctorSean  2</t>
-  </si>
-  <si>
-    <t>Criteria : Referral
-Start Date : 2016 Oct 8
-End Date : 2016 Oct 9</t>
-  </si>
-  <si>
-    <t>Rank   Speciality    Total
-1 Paediatrics  1
-1 Surgery - Neuro  1</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank   Speciality    Total
-1 Surgery - Orthopaedics  3
-2 doctorSean  2
-2 Medicine - Gastroenterology  2
-2 Surgery - Breast    2
-2 Surgery - Eye   2
-2 Surgery - Neuro   2
-3 Medicine - Cardiology   1
-3 Medicine - Dermatology   1
-3 Medicine - Oncology  1
-3 Paediatrics   1
-3 Surgery - ENT   1
-3 Surgery - General   1
-3 Surgery - Plastic   1
-3 Surgery - Urology   1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank   Speciality   Total
-1 Surgery - Orthopaedics 3
-2 Medicine - Gastroenterology 2
-2 doctorSean 2
-2 Surgery - Neuro 2
-2 Surgery - Breast 2
-2 Surgery - Eye 2
-3 Surgery - ENT 1
-3 Surgery - General 1
-3 Surgery - Urology 1
-3 Medicine - Cardiology 1
-3 Surgery - Plastic 1
-3 Medicine - Dermatology 1
-3 Paediatrics 1
-3 Medicine - Oncology 1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Name: Client Tester 1
-Date of Birth : 20/04/1982
-Passport Number : F1299823102
-Gender: Male
-Client Type : Individual
-VISA Type: -  
-Nationality: Chinese
-Country of Residence:  China
-Referred by :  -  
-Street, City, State, Code, Country : - </t>
-  </si>
-  <si>
-    <t>Criteria : Referral
-Start Date : 2016 Nov 1
-End Date : 2016 Nov 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rank   referral name : count 
-1  ULINK : 1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rank   referral name : count 
-no result
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Name: Client Tester 2
-Date of Birth : 21/05/1982
-Passport Number : D232141097623G
-Gender: female
-Client Type : Individual
-VISA Type:  -  
-Nationality: Indonesian
-Country of Residence:  Malaysia
-Referred by :  -  
-Street, City, State, Code, Country : - </t>
-  </si>
-  <si>
-    <t>Age : 9
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: All
-Regularity : 0</t>
-  </si>
-  <si>
-    <t>Success Message shown, screening added into the table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Screening </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success message not shown, screening added into the list of result (table) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening </t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Age : 9
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: All
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Female </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0 - 9 : 0
+10 - 19 : 1
+20 - 29 : 0
+30 - 39 : 0
+40 - 49 : 1
+50 - 59 : 0
+60 - 69  : 0
+70-79  : 2
+80 - 89  : 0
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Regularity : 1 </t>
+      <t>Male</t>
     </r>
-  </si>
-  <si>
-    <t>Success Message shown, screening details updated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unable to edit screening </t>
-  </si>
-  <si>
-    <t>Redirect back to screening page, screening removed from the table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redirect back to screening page, screening removed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Screening (Type : ALL) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Screening (Type : Male) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Screening (Type : Female) </t>
-  </si>
-  <si>
-    <t>Age : 21
-Common illness:  Cancer
-Recommended screening:  - 
-Demographic affected: Female
-Regularity : 1 Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Screening (Type : Infant) </t>
-  </si>
-  <si>
-    <t>Age : 1
-Common illness:  Chicken Pox
-Recommended screening:  - 
-Demographic affected: Infant
-Regularity : 1 Year</t>
-  </si>
-  <si>
-    <t>Age : 20
-Common illness: Cancers
-Recommended screening:  - 
-Demographic affected: Male
-Regularity : 1</t>
-  </si>
-  <si>
-    <t>Create Client 
-(Visa Type: indonesian)</t>
-  </si>
-  <si>
-    <t>Create Client 
-(Visa Type: non-indonesian)</t>
-  </si>
-  <si>
-    <t>Success Message Shown</t>
-  </si>
-  <si>
-    <t>Unable to create client</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0 - 9 : 0 
+10 - 19 : 0
+20 - 29 : 0
+30 - 39 : 1  
+40 - 49 : 1
+50 - 59 : 0
+60 - 69  : 0
+70-79  : 7
+80 - 89  : 0</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -478,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -486,26 +564,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -831,13 +910,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.6">
@@ -851,13 +930,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.6">
@@ -871,13 +950,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -889,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="C1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -933,13 +1012,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.6">
@@ -953,13 +1032,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
@@ -970,16 +1049,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.6">
@@ -1034,19 +1113,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
@@ -1057,16 +1136,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
@@ -1077,16 +1156,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1098,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="C1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1143,10 +1222,14 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="78" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1157,7 +1240,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1259,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1210,13 +1299,17 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3" s="5"/>
@@ -1242,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1280,19 +1373,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="156" x14ac:dyDescent="0.6">
@@ -1300,19 +1393,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.6">
@@ -1508,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1549,19 +1642,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1572,19 +1665,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1595,19 +1688,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1618,19 +1711,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1641,19 +1734,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1664,19 +1757,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>

--- a/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
+++ b/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis - Doctor" sheetId="12" r:id="rId1"/>
     <sheet name="Analysis - Referral" sheetId="15" r:id="rId2"/>
     <sheet name="Analysis - Specialty" sheetId="16" r:id="rId3"/>
-    <sheet name="KPI - Medical" sheetId="14" r:id="rId4"/>
-    <sheet name="Gender and Age" sheetId="13" r:id="rId5"/>
-    <sheet name="Client -  CRUD" sheetId="17" r:id="rId6"/>
-    <sheet name="Screening - CRUD " sheetId="18" r:id="rId7"/>
+    <sheet name="KPI - VISA" sheetId="19" r:id="rId4"/>
+    <sheet name="KPI - Medical" sheetId="14" r:id="rId5"/>
+    <sheet name="Gender and Age" sheetId="13" r:id="rId6"/>
+    <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId7"/>
+    <sheet name="Screening - CRUD " sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
   <si>
     <t>No</t>
   </si>
@@ -248,9 +249,6 @@
     <t xml:space="preserve">Edit Screening </t>
   </si>
   <si>
-    <t xml:space="preserve">Success message not shown, screening added into the list of result (table) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Delete Screening </t>
   </si>
   <si>
@@ -281,9 +279,6 @@
   </si>
   <si>
     <t>Redirect back to screening page, screening removed from the table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redirect back to screening page, screening removed. </t>
   </si>
   <si>
     <t xml:space="preserve">Add Screening (Type : ALL) </t>
@@ -365,15 +360,14 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0 - 9 : 0 
-10 - 19 : 0
-20 - 29 : 0
-30 - 39 : 0
-40 - 49 : 0
-50 - 59 : 0
-60 - 69  : 8
-70-79  : 0
-80 - 89  : 0
+10 - 20 : 0
+20 - 30 : 0
+30 - 40 : 0
+40 - 50 : 0
+50 - 60 : 0
+60 - 70  : 1
+70 - 80 : 0
+80 - 90  : 0
 </t>
     </r>
     <r>
@@ -396,15 +390,14 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0 - 9 : 0 
-10 - 19 : 0
-20 - 29 : 1
-30 - 39 : 0  
-40 - 49 : 0
-50 - 59 : 0
-60 - 69  : 14
-70-79  : 0
-80 - 89  : 0</t>
+10 - 20 : 0
+20 - 30 : 0
+30 - 40 : 0  
+40 - 50 : 0
+50 - 60 : 0
+60 - 70  : 5
+70 - 80: 0
+80 - 90  : 0</t>
     </r>
   </si>
   <si>
@@ -428,15 +421,14 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0 - 9 : 0
-10 - 19 : 1
-20 - 29 : 0
-30 - 39 : 0
-40 - 49 : 1
-50 - 59 : 0
-60 - 69  : 0
-70-79  : 2
-80 - 89  : 0
+10 - 20 : 1
+20 - 30 : 0
+30 - 40 : 0
+40 - 50 : 0
+50 - 60 : 0
+60 - 70  : 1
+70 - 80 : 2
+80 - 90  : 0
 </t>
     </r>
     <r>
@@ -459,16 +451,27 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0 - 9 : 0 
-10 - 19 : 0
-20 - 29 : 0
-30 - 39 : 1  
-40 - 49 : 1
-50 - 59 : 0
-60 - 69  : 0
-70-79  : 7
-80 - 89  : 0</t>
+10 - 20 : 0
+20 - 30 : 0
+30 - 40 : 1  
+40 - 50 : 1
+50 - 60 : 0
+60 - 70  : 0
+70 - 80: 7
+80 - 90  : 0</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success message not shown, screening NOT added into the list of result (table) </t>
+  </si>
+  <si>
+    <t>Success message not shown, screening added into timeline-female but not time-line summary</t>
+  </si>
+  <si>
+    <t>Unable to delete the record temporary</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1178,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1223,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -1240,10 +1278,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -1254,12 +1292,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1302,10 +1340,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -1331,12 +1369,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1373,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
@@ -1393,16 +1431,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
@@ -1597,12 +1635,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1642,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -1651,7 +1689,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -1665,16 +1703,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -1688,19 +1726,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1711,16 +1749,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
@@ -1737,13 +1775,13 @@
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
@@ -1757,19 +1795,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>

--- a/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
+++ b/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -252,26 +252,6 @@
     <t xml:space="preserve">Delete Screening </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Age : 9
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: All
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Regularity : 1 </t>
-    </r>
-  </si>
-  <si>
     <t>Success Message shown, screening details updated.</t>
   </si>
   <si>
@@ -279,9 +259,6 @@
   </si>
   <si>
     <t>Redirect back to screening page, screening removed from the table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Screening (Type : ALL) </t>
   </si>
   <si>
     <t xml:space="preserve">Add Screening (Type : Male) </t>
@@ -327,9 +304,6 @@
   <si>
     <t xml:space="preserve">"Record Added" 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success message not shown, screening not added into the list of result (table) </t>
   </si>
   <si>
     <t>inpatient count = 3
@@ -462,16 +436,82 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Fail </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success message not shown, screening NOT added into the list of result (table) </t>
-  </si>
-  <si>
-    <t>Success message not shown, screening added into timeline-female but not time-line summary</t>
-  </si>
-  <si>
-    <t>Unable to delete the record temporary</t>
+    <t xml:space="preserve">Add Screening (Type : Both) </t>
+  </si>
+  <si>
+    <t>Age : 9
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: Male and Female
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>screening added to the table</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Age : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>infant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Regularity : </t>
+    </r>
+  </si>
+  <si>
+    <t>record deleted</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1256,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1261,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -1278,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -1340,10 +1380,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -1411,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
@@ -1431,16 +1471,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
@@ -1639,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1675,24 +1715,24 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="101.4" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" ht="114.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1703,19 +1743,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1726,19 +1766,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1749,19 +1789,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1775,13 +1815,13 @@
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
@@ -1801,13 +1841,13 @@
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1881,5 +1921,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
+++ b/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis - Doctor" sheetId="12" r:id="rId1"/>
@@ -314,6 +314,84 @@
 outpatient count = 0</t>
   </si>
   <si>
+    <t xml:space="preserve">Add Screening (Type : Both) </t>
+  </si>
+  <si>
+    <t>Age : 9
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: Male and Female
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>screening added to the table</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Age : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>infant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Regularity : </t>
+    </r>
+  </si>
+  <si>
+    <t>record deleted</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -323,7 +401,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Female </t>
+      <t xml:space="preserve">Female 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0-9 : 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 - 20 : 1</t>
     </r>
     <r>
       <rPr>
@@ -334,14 +435,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-10 - 20 : 0
 20 - 30 : 0
 30 - 40 : 0
 40 - 50 : 0
 50 - 60 : 0
-60 - 70  : 1
-70 - 80 : 0
-80 - 90  : 0
+60 - 70  : 0
 </t>
     </r>
     <r>
@@ -353,7 +451,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Male</t>
+      <t>70 - 80 : 2</t>
     </r>
     <r>
       <rPr>
@@ -364,44 +462,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-10 - 20 : 0
-20 - 30 : 0
-30 - 40 : 0  
-40 - 50 : 0
-50 - 60 : 0
-60 - 70  : 5
-70 - 80: 0
-80 - 90  : 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Female </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-10 - 20 : 1
-20 - 30 : 0
-30 - 40 : 0
-40 - 50 : 0
-50 - 60 : 0
-60 - 70  : 1
-70 - 80 : 2
 80 - 90  : 0
 </t>
     </r>
@@ -428,97 +488,124 @@
 10 - 20 : 0
 20 - 30 : 0
 30 - 40 : 1  
-40 - 50 : 1
-50 - 60 : 0
-60 - 70  : 0
-70 - 80: 7
-80 - 90  : 0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Screening (Type : Both) </t>
-  </si>
-  <si>
-    <t>Age : 9
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: Male and Female
-Regularity : 0</t>
-  </si>
-  <si>
-    <t>screening added to the table</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Age : </t>
+</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>40 - 50 : 1</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">z
+50 - 60 : 0
+60 - 70  : 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>70 - 80: 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: </t>
-    </r>
+80 - 90  : 0</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>infant</t>
+      <t xml:space="preserve">Female </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+0-9 : 1
+10 - 20 : 0
+20 - 30 : 0
+30 - 40 : 0
+40 - 50 : 0
+50 - 60 : 0
+60 - 70  : 2
+70 - 80 : 0
+80 - 90  : 0
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Regularity : </t>
-    </r>
-  </si>
-  <si>
-    <t>record deleted</t>
+      <t>Male</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0-9 : 0
+10 - 20 : 0
+20 - 30 : 1
+30 - 40 : 1  
+40 - 50 : 0
+50 - 60 : 0
+60 - 70  : 7
+70 - 80: 0
+80 - 90  : 0</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -578,6 +665,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -599,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -627,6 +720,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,7 +1316,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1334,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1347,9 +1442,10 @@
     <col min="3" max="3" width="14.3984375" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" customWidth="1"/>
     <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="8" max="8" width="14.94921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="288.3" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" ht="288.3" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1380,16 +1476,16 @@
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1397,11 +1493,20 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
       <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="H8" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1679,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1720,16 +1825,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
@@ -1752,7 +1857,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
@@ -1775,7 +1880,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
@@ -1798,7 +1903,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
@@ -1815,7 +1920,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
@@ -1844,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>26</v>

--- a/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
+++ b/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis - Doctor" sheetId="12" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
   <si>
     <t>No</t>
   </si>
@@ -600,6 +600,33 @@
 80 - 90  : 0</t>
     </r>
   </si>
+  <si>
+    <t>team = visa
+start date = 2016 Oct 1
+end date = 2016 Oct 15</t>
+  </si>
+  <si>
+    <t>team = visa
+start date = 2016 Oct 15
+end date = 2016 Oct 31</t>
+  </si>
+  <si>
+    <t>indonesian count = 0 
+non-indonesian count = 0</t>
+  </si>
+  <si>
+    <t>indonesian count = 0 
+non-indonesian count = 2</t>
+  </si>
+  <si>
+    <t>team = visa
+start date = 2016 Nov 1
+end date = 2017 Dec 31</t>
+  </si>
+  <si>
+    <t>indonesian count = 2 
+non-indonesian count = 2</t>
+  </si>
 </sst>
 </file>
 
@@ -692,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -723,6 +750,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,33 +1346,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="2" max="2" width="18.34765625" customWidth="1"/>
+    <col min="3" max="3" width="24.84765625" customWidth="1"/>
+    <col min="4" max="4" width="23.296875" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1350,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1431,7 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
+++ b/Test Cases/Iteration 2/Iteration 2/Iteration 2 Test Cases v2.1 - Result v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="1662" yWindow="462" windowWidth="17118" windowHeight="15540" tabRatio="674" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis - Doctor" sheetId="12" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Gender and Age" sheetId="13" r:id="rId6"/>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId7"/>
     <sheet name="Screening - CRUD " sheetId="18" r:id="rId8"/>
+    <sheet name="Client - CRUD" sheetId="20" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -72,10 +73,6 @@
     <t>team = medical 
 start date = 2016 Oct 1
 end date = 2016 Oct 15</t>
-  </si>
-  <si>
-    <t>inpatient count = 4 
-outpatient count = 1</t>
   </si>
   <si>
     <t>team = medical 
@@ -304,10 +301,6 @@
   <si>
     <t xml:space="preserve">"Record Added" 
 </t>
-  </si>
-  <si>
-    <t>inpatient count = 3
-outpatient count = 2</t>
   </si>
   <si>
     <t>inpatient count = 0
@@ -390,152 +383,6 @@
   </si>
   <si>
     <t>record deleted</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Female 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0-9 : 0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10 - 20 : 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-20 - 30 : 0
-30 - 40 : 0
-40 - 50 : 0
-50 - 60 : 0
-60 - 70  : 0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>70 - 80 : 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-80 - 90  : 0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Male</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-10 - 20 : 0
-20 - 30 : 0
-30 - 40 : 1  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40 - 50 : 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">z
-50 - 60 : 0
-60 - 70  : 0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>70 - 80: 7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-80 - 90  : 0</t>
-    </r>
   </si>
   <si>
     <r>
@@ -611,21 +458,93 @@
 end date = 2016 Oct 31</t>
   </si>
   <si>
-    <t>indonesian count = 0 
-non-indonesian count = 0</t>
-  </si>
-  <si>
-    <t>indonesian count = 0 
-non-indonesian count = 2</t>
-  </si>
-  <si>
     <t>team = visa
 start date = 2016 Nov 1
 end date = 2017 Dec 31</t>
   </si>
   <si>
+    <t xml:space="preserve">Add Client </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name: Tester1 
+Date of Birth: 01/01/1992
+Gender : Female 
+Passport Number :  G123456F
+Client Type: IndividuaNationality : - 
+Referred by: -  
+</t>
+  </si>
+  <si>
+    <t>Success Message shown, client added into the table</t>
+  </si>
+  <si>
+    <t>Edit Client</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Client Name: Tester1 
+Date of Birth: 01/01/1992
+Gender : Female 
+Passport Number :  G123456F
+Client Type: IndividuaNationality : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Indo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Referred by: -  
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Success Message shown, client's nationality edited  added into the table</t>
+  </si>
+  <si>
+    <t>Delete Client</t>
+  </si>
+  <si>
+    <t>Client not shown in table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Shown </t>
+  </si>
+  <si>
+    <t>Changes made not reflected in table and database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client not shown in table and database </t>
+  </si>
+  <si>
+    <t>inpatient count = 1 
+outpatient count = 0</t>
+  </si>
+  <si>
+    <t>indonesian count = 8 
+non-indonesian count = 14</t>
+  </si>
+  <si>
+    <t>indonesian count = 1 
+non-indonesian count = 1</t>
+  </si>
+  <si>
     <t>indonesian count = 2 
-non-indonesian count = 2</t>
+non-indonesian count = 4</t>
   </si>
 </sst>
 </file>
@@ -749,13 +668,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,13 +1000,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.6">
@@ -1101,13 +1020,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.6">
@@ -1121,13 +1040,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1180,16 +1099,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.6">
@@ -1200,16 +1119,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
@@ -1220,16 +1139,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.6">
@@ -1284,19 +1203,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
@@ -1307,16 +1226,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.6">
@@ -1327,16 +1246,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1348,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:F4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1361,22 +1280,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1388,13 +1307,17 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
@@ -1404,29 +1327,37 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1437,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1480,13 +1411,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="78" x14ac:dyDescent="0.6">
@@ -1497,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1450,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1560,16 +1491,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.6">
@@ -1643,19 +1574,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="156" x14ac:dyDescent="0.6">
@@ -1663,19 +1594,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.6">
@@ -1871,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1912,19 +1843,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1935,19 +1866,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1958,19 +1889,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1981,19 +1912,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -2004,19 +1935,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -2027,19 +1958,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -2115,4 +2046,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="20.546875" customWidth="1"/>
+    <col min="4" max="4" width="15.1484375" customWidth="1"/>
+    <col min="5" max="5" width="12.6484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="156" x14ac:dyDescent="0.6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="171.6" x14ac:dyDescent="0.6">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="171.6" x14ac:dyDescent="0.6">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>